--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17625" windowHeight="13410"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14535" windowHeight="6510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB接続定義" sheetId="1" r:id="rId1"/>
-    <sheet name="IF呼出" sheetId="5" r:id="rId2"/>
-    <sheet name="IF⇒内部データ" sheetId="17" r:id="rId3"/>
-    <sheet name="内部⇒内部データ" sheetId="2" r:id="rId4"/>
-    <sheet name="SQL発行" sheetId="15" r:id="rId5"/>
-    <sheet name="内部データ⇒IF" sheetId="14" r:id="rId6"/>
-    <sheet name="任意処理" sheetId="18" r:id="rId7"/>
-    <sheet name="バリデーション種別" sheetId="19" r:id="rId8"/>
+    <sheet name="画面デザイン" sheetId="20" r:id="rId2"/>
+    <sheet name="IF呼出" sheetId="5" r:id="rId3"/>
+    <sheet name="IF⇒内部データ" sheetId="17" r:id="rId4"/>
+    <sheet name="内部⇒内部データ" sheetId="2" r:id="rId5"/>
+    <sheet name="SQL発行" sheetId="15" r:id="rId6"/>
+    <sheet name="内部データ⇒IF" sheetId="14" r:id="rId7"/>
+    <sheet name="任意処理" sheetId="18" r:id="rId8"/>
+    <sheet name="バリデーション種別" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="175">
   <si>
     <t>リクエスト種別</t>
     <rPh sb="5" eb="7">
@@ -1026,6 +1027,381 @@
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁数</t>
+    <rPh sb="0" eb="2">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理ファイル名</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g0101_01.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目id</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントロール種別</t>
+    <rPh sb="6" eb="8">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英数</t>
+    <rPh sb="0" eb="2">
+      <t>エイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerPostalCd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="2">
+      <t>ユウビン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerBirthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerEmail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客E-Mail</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerJobHistory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客職歴</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>grd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customerJobHistory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細id</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細項目id</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細項目名</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細項目コントロール種別</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細項目属性</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細項目桁数</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明細項目変数名</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jobname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョブ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jobname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enddate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了年月</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始年月</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付(年月日)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付(年月)</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1050,7 +1426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,8 +1439,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1087,14 +1469,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1398,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -1412,10 +1807,788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="1">
+        <v>256</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="5">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E28 E14">
+      <formula1>"-,○"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:A108"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2055,7 +3228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
@@ -2195,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -2342,7 +3515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
@@ -2869,7 +4042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -3044,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -3159,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D5"/>
   <sheetViews>

--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -1147,13 +1147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>customerName</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1402,6 +1395,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面id</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1810,7 +1810,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -1840,13 +1840,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1901,109 +1901,109 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1">
         <v>256</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -2034,117 +2034,117 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="E16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="5">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F18" s="5">
         <v>20</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" s="5">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="5">
         <v>6</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">

--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="181">
   <si>
     <t>リクエスト種別</t>
     <rPh sb="5" eb="7">
@@ -1133,28 +1133,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変数名</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>g0101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>customerName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1165,10 +1144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>customerName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>customerPostalCd</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1227,14 +1202,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>customerJobHistory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>明細id</t>
     <rPh sb="0" eb="2">
       <t>メイサイ</t>
@@ -1402,6 +1369,84 @@
     <t>画面id</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理パス</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客マスタ検索</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g0101_02.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g010101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g010102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客マスタ編集</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務id</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務名</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面id</t>
+    <rPh sb="0" eb="4">
+      <t>ショキガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1446,7 +1491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1478,11 +1523,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1490,6 +1544,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1807,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1820,761 +1876,832 @@
     <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
+      <c r="A5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>129</v>
+      <c r="A6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="E14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="1">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="1">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="1">
-        <v>256</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>161</v>
+      <c r="G16" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3</v>
+        <v>139</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="5">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>167</v>
+        <v>144</v>
+      </c>
+      <c r="F18" s="1">
+        <v>256</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>134</v>
+        <v>173</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="5">
-        <v>6</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="5">
-        <v>6</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>169</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="5">
+        <v>20</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="5">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="5">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>16</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2" t="s">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E28 E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31:E35 E21">
       <formula1>"-,○"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -1373,13 +1373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>物理パス</t>
-    <rPh sb="0" eb="2">
-      <t>ブツリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>p0101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1416,37 +1409,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務id</t>
+    <t>業務</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務</t>
+    <t>p0101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務プログラムid</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務名</t>
+    <t>業務プログラム名</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh sb="7" eb="8">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>p0101</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期画面id</t>
-    <rPh sb="0" eb="4">
-      <t>ショキガメン</t>
+    <t>パス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期表示画面id</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1865,15 +1868,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
@@ -1881,18 +1884,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>180</v>
@@ -1900,16 +1903,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1939,10 +1942,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>127</v>
@@ -1951,13 +1954,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -1997,7 +2000,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>132</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>136</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>140</v>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>138</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>142</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>145</v>

--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="182">
   <si>
     <t>リクエスト種別</t>
     <rPh sb="5" eb="7">
@@ -1409,13 +1409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>p0101</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1437,10 +1430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期表示画面id</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
@@ -1451,6 +1440,21 @@
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務プログラム</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g010101</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1869,7 +1873,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1884,21 +1888,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1909,10 +1913,10 @@
         <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">

--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="206">
   <si>
     <t>リクエスト種別</t>
     <rPh sb="5" eb="7">
@@ -1314,10 +1314,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>jobname</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>startdate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1455,6 +1451,169 @@
   </si>
   <si>
     <t>g010101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示部</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層内表示順</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層深さ</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層ID</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bottom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ent遷移順</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tab遷移順</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>haader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル列番号</t>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル行番号</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル行幅数</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セル列幅数</t>
+    <rPh sb="2" eb="4">
+      <t>レツハバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1870,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1884,57 +2043,58 @@
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -1944,44 +2104,44 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>128</v>
@@ -2001,10 +2161,52 @@
       <c r="G13" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>132</v>
@@ -2024,10 +2226,24 @@
       <c r="G14" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>136</v>
@@ -2047,10 +2263,24 @@
       <c r="G15" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>140</v>
@@ -2062,7 +2292,7 @@
         <v>134</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1">
         <v>8</v>
@@ -2070,10 +2300,24 @@
       <c r="G16" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>138</v>
@@ -2093,10 +2337,24 @@
       <c r="G17" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>142</v>
@@ -2116,10 +2374,24 @@
       <c r="G18" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>145</v>
@@ -2139,8 +2411,22 @@
       <c r="G19" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2148,7 +2434,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2156,7 +2442,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>129</v>
       </c>
@@ -2166,7 +2452,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>148</v>
       </c>
@@ -2188,262 +2474,479 @@
       <c r="G23" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>50</v>
+      </c>
+      <c r="N24" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="5">
-        <v>20</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <v>50</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="5">
-        <v>6</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N28" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" s="5">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="5">
+        <v>20</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="5">
         <v>6</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+      <c r="G35" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
@@ -2453,171 +2956,175 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2" t="s">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2" t="s">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
@@ -2626,89 +3133,117 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2" t="s">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31:E35 E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E36:E39">
       <formula1>"-,○"</formula1>
     </dataValidation>
   </dataValidations>

--- a/excel_doc/ApiDoc01.xlsx
+++ b/excel_doc/ApiDoc01.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="205">
   <si>
     <t>リクエスト種別</t>
     <rPh sb="5" eb="7">
@@ -1469,10 +1469,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>body</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>階層内表示順</t>
     <rPh sb="0" eb="2">
       <t>カイソウ</t>
@@ -1605,15 +1601,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>height</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>readonly</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g010101</t>
+  </si>
+  <si>
+    <t>g010101</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1657,7 +1652,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1698,11 +1693,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1712,6 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2029,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,12 +2053,12 @@
     <col min="11" max="11" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>175</v>
       </c>
@@ -2065,7 +2072,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -2079,20 +2086,20 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -2104,7 +2111,7 @@
       </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -2116,7 +2123,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>172</v>
       </c>
@@ -2128,18 +2135,18 @@
       </c>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
@@ -2165,46 +2172,49 @@
         <v>181</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="V13" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>171</v>
       </c>
@@ -2241,7 +2251,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -2278,7 +2288,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>171</v>
       </c>
@@ -2454,430 +2464,469 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="L23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="1">
+      <c r="E24" s="5"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="1">
         <v>0</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>1</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>50</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="1">
+      <c r="I25" s="5"/>
+      <c r="J25" s="1">
         <v>0</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <v>1</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
         <v>50</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>205</v>
+      <c r="O25" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="1">
+      <c r="I26" s="5"/>
+      <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
         <v>2</v>
       </c>
-      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1" t="s">
-        <v>205</v>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="1">
+      <c r="I27" s="5"/>
+      <c r="J27" s="1">
         <v>0</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
         <v>3</v>
       </c>
-      <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>205</v>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="1">
+      <c r="E28" s="5"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O28" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="1">
+      <c r="I29" s="5"/>
+      <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="1">
+      <c r="I30" s="5"/>
+      <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
         <v>2</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="1">
+      <c r="I31" s="5"/>
+      <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
         <v>3</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>3</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>20</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>6</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>6</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
@@ -2888,7 +2937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -2897,7 +2946,7 @@
       </c>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -2906,7 +2955,7 @@
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
